--- a/IBOVESPA_weights.xlsx
+++ b/IBOVESPA_weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\учеба 3 курс\КУРСАЧ\Полезное\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280F1030-D306-436D-9DBF-1835CA3170DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890D2CA5-94B0-437D-81F4-169AA30B546C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1232C24D-F367-4D98-B5F3-3C505975A465}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ABEV3.SA</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t xml:space="preserve"> FLRY3.SA</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -476,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F89B75-7C85-411E-B985-0F7A9B2014CD}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,23 +495,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>5.08</v>
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -513,183 +519,183 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.85</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1.93</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>6.55</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2.38</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.62</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3.33</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1.69</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1.1200000000000001</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>2.52</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>1.58</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -697,7 +703,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -705,7 +711,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -713,7 +719,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -721,9 +727,17 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>0</v>
       </c>
     </row>
